--- a/mapas/mapa.xlsx
+++ b/mapas/mapa.xlsx
@@ -108,17 +108,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:AD22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AF12" activeCellId="0" sqref="AF12"/>
+      <selection pane="topLeft" activeCell="K4" activeCellId="0" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.48828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="2.42"/>
@@ -442,13 +442,13 @@
         <v>1</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>1</v>
@@ -460,7 +460,7 @@
         <v>1</v>
       </c>
       <c r="M4" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" s="0" t="n">
         <v>0</v>
@@ -475,7 +475,7 @@
         <v>0</v>
       </c>
       <c r="R4" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" s="0" t="n">
         <v>1</v>
@@ -487,13 +487,13 @@
         <v>1</v>
       </c>
       <c r="V4" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X4" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="0" t="n">
         <v>1</v>
@@ -974,7 +974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>1</v>
       </c>
@@ -1822,13 +1822,13 @@
         <v>1</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" s="0" t="n">
         <v>1</v>
@@ -1840,7 +1840,7 @@
         <v>1</v>
       </c>
       <c r="M19" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19" s="0" t="n">
         <v>0</v>
@@ -1855,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="R19" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S19" s="0" t="n">
         <v>1</v>
@@ -1867,13 +1867,13 @@
         <v>1</v>
       </c>
       <c r="V19" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W19" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X19" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y19" s="0" t="n">
         <v>1</v>
